--- a/旅行/20230622港澳三日游.xlsx
+++ b/旅行/20230622港澳三日游.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="14400"/>
+    <workbookView windowWidth="28800" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43">
   <si>
     <t>日期</t>
   </si>
@@ -52,25 +52,65 @@
     <t>深圳北站-&gt;香港西九龙站</t>
   </si>
   <si>
-    <t xml:space="preserve">          </t>
+    <t>10min</t>
   </si>
   <si>
     <t>旺角</t>
   </si>
   <si>
+    <t>地铁（观塘线or紫色线）下车站(旺角站)  10分钟 HKD 5.5-6.5
+巴士：旺角14线or旺角2D线 20-30分钟 HKD 4.1-10.9</t>
+  </si>
+  <si>
     <t>油麻地</t>
   </si>
   <si>
+    <t>地铁：旺角线or红色线 下车站(油麻地站)  2分钟 HKD 3.5-4.5
+步行：15-20分钟</t>
+  </si>
+  <si>
     <t>尖沙咀</t>
   </si>
   <si>
+    <t>地铁：荃湾线（绿色线）至尖沙咀站 5分钟 HKD 4-5</t>
+  </si>
+  <si>
     <t>中环</t>
   </si>
   <si>
+    <t>地铁：荃湾线（绿色线）至中环站，约需15分钟 HKD 4.5-6.5</t>
+  </si>
+  <si>
     <t>铜锣湾</t>
   </si>
   <si>
+    <t>地铁：港铁岛线（蓝色线）至铜锣湾站 15分钟 HKD 5-7</t>
+  </si>
+  <si>
     <t>香港XXX？-&gt; 深圳北站</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">港铁：东铁线（红色线）至香港站，
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">换乘
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>地铁：西铁线（紫色线）至深圳湾口岸站</t>
+    </r>
   </si>
   <si>
     <t>迪士尼？</t>
@@ -133,12 +173,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,6 +195,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -163,8 +210,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -172,22 +258,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,34 +272,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -241,13 +303,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -263,22 +318,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -286,16 +326,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -308,37 +355,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -350,145 +529,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -518,39 +565,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -569,7 +583,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -589,6 +603,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -599,162 +637,177 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -777,39 +830,39 @@
     <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
     <cellStyle name="Accent3" xfId="14" builtinId="37"/>
     <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
+    <cellStyle name="Accent2" xfId="16" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="17" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="18" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="19" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="20" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32"/>
+    <cellStyle name="Bad" xfId="22" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="23" builtinId="42"/>
+    <cellStyle name="Total" xfId="24" builtinId="25"/>
+    <cellStyle name="Output" xfId="25" builtinId="21"/>
+    <cellStyle name="Currency" xfId="26" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38"/>
+    <cellStyle name="Note" xfId="28" builtinId="10"/>
+    <cellStyle name="Input" xfId="29" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="30" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="31" builtinId="22"/>
+    <cellStyle name="Good" xfId="32" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="33" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="34" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="35" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="36" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="37" builtinId="50"/>
+    <cellStyle name="Title" xfId="38" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="39" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="40" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9"/>
+    <cellStyle name="20% - Accent2" xfId="42" builtinId="34"/>
+    <cellStyle name="Link" xfId="43" builtinId="8"/>
+    <cellStyle name="Heading 2" xfId="44" builtinId="17"/>
+    <cellStyle name="Comma" xfId="45" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="46" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="47" builtinId="40"/>
+    <cellStyle name="Percent" xfId="48" builtinId="5"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1080,13 +1133,14 @@
   <sheetPr/>
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="251" zoomScaleNormal="251" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" zoomScale="127" zoomScaleNormal="127" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
   <cols>
     <col min="4" max="4" width="20.484375" customWidth="1"/>
+    <col min="5" max="5" width="51.5703125" customWidth="1"/>
     <col min="6" max="6" width="11.09375" customWidth="1"/>
     <col min="7" max="7" width="22.40625" customWidth="1"/>
   </cols>
@@ -1139,146 +1193,164 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="3:4">
+    <row r="4" ht="65" spans="3:5">
       <c r="C4" t="s">
         <v>12</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="4:4">
+      <c r="E4" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" ht="51" spans="4:5">
       <c r="D5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="4:4">
+        <v>15</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="4:5">
       <c r="D6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="4:4">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="4:5">
       <c r="D7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="4:4">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="4:5">
       <c r="D8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="4:4">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" ht="51" spans="4:5">
       <c r="D9" t="s">
-        <v>18</v>
+        <v>23</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="4:5">
       <c r="D13" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E13" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" ht="51" spans="3:7">
       <c r="C14" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D14" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E14" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F14">
         <v>220</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>26</v>
+      <c r="G14" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="4:7">
       <c r="D15" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E15" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="G15" s="4"/>
     </row>
     <row r="16" spans="4:7">
       <c r="D16" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E16" t="s">
-        <v>28</v>
-      </c>
-      <c r="G16" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="G16" s="4"/>
     </row>
     <row r="17" spans="4:7">
       <c r="D17" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E17" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G17" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="4:5">
       <c r="D18" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E18" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="4:5">
       <c r="D19" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E19" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="4:5">
       <c r="D20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" t="s">
         <v>34</v>
-      </c>
-      <c r="E20" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="21" spans="4:5">
       <c r="D21" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E21" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="4:6">
       <c r="D22" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E22" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F22">
         <v>220</v>

--- a/旅行/20230622港澳三日游.xlsx
+++ b/旅行/20230622港澳三日游.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12180"/>
+    <workbookView windowWidth="28000" windowHeight="11320"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49">
   <si>
     <t>日期</t>
   </si>
@@ -37,6 +37,9 @@
     <t>备注</t>
   </si>
   <si>
+    <t>day1</t>
+  </si>
+  <si>
     <t>3h</t>
   </si>
   <si>
@@ -44,6 +47,15 @@
   </si>
   <si>
     <t>动车</t>
+  </si>
+  <si>
+    <t>出发前准备：
+- 身份证
+- 港澳通行证
+- 港币
+- 流量卡
+- 八达通卡
+- 黑码：海关旅客指间服务</t>
   </si>
   <si>
     <t>20min</t>
@@ -87,21 +99,21 @@
     <t>地铁：港铁岛线（蓝色线）至铜锣湾站 15分钟 HKD 5-7</t>
   </si>
   <si>
-    <t>香港XXX？-&gt; 深圳北站</t>
+    <t>返程：to 福田口岸</t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">港铁：东铁线（红色线）至香港站，
-</t>
+      <t>地铁：
+铜锣湾(港岛线)  换乘站（金钟站）</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">换乘
-</t>
+      <t>落马洲</t>
     </r>
     <r>
       <rPr>
@@ -109,8 +121,32 @@
         <color theme="1"/>
         <charset val="134"/>
       </rPr>
-      <t>地铁：西铁线（紫色线）至深圳湾口岸站</t>
+      <t>（</t>
     </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>东铁线</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）
+福田口岸(地铁4or10号线)</t>
+    </r>
+  </si>
+  <si>
+    <t>深圳：住宿</t>
+  </si>
+  <si>
+    <t>day2</t>
   </si>
   <si>
     <t>迪士尼？</t>
@@ -119,10 +155,16 @@
     <t>海洋公园？</t>
   </si>
   <si>
+    <t>香港XXX？-&gt; 深圳北站</t>
+  </si>
+  <si>
     <t>深圳北站-&gt;深圳蛇口</t>
   </si>
   <si>
     <t>滴滴</t>
+  </si>
+  <si>
+    <t>day3</t>
   </si>
   <si>
     <t>1h</t>
@@ -175,8 +217,8 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -187,6 +229,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,6 +244,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -202,8 +290,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -212,15 +330,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -235,74 +345,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -316,33 +381,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -355,19 +397,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -379,13 +475,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,145 +541,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -546,21 +588,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -579,11 +606,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -603,26 +636,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -641,8 +665,26 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -651,165 +693,171 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1131,10 +1179,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A2:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="127" zoomScaleNormal="127" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
@@ -1145,82 +1193,84 @@
     <col min="7" max="7" width="22.40625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="3:6">
-      <c r="C2" t="s">
+    <row r="3" ht="118" spans="1:7">
+      <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="F2">
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3">
         <v>300</v>
       </c>
-    </row>
-    <row r="3" spans="3:5">
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="G3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" ht="65" spans="3:5">
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1"/>
       <c r="C4" t="s">
         <v>12</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" ht="34" spans="1:5">
+      <c r="A5" s="1"/>
+      <c r="C5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" ht="51" spans="4:5">
       <c r="D5" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="4:5">
+    <row r="6" ht="34" spans="1:5">
+      <c r="A6" s="1"/>
       <c r="D6" t="s">
         <v>17</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="4:5">
+    <row r="7" spans="1:5">
+      <c r="A7" s="1"/>
       <c r="D7" t="s">
         <v>19</v>
       </c>
@@ -1228,7 +1278,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="4:5">
+    <row r="8" spans="1:5">
+      <c r="A8" s="1"/>
       <c r="D8" t="s">
         <v>21</v>
       </c>
@@ -1236,127 +1287,166 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" ht="51" spans="4:5">
+    <row r="9" spans="1:5">
+      <c r="A9" s="1"/>
       <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="4:4">
+    <row r="10" ht="51" spans="1:5">
+      <c r="A10" s="1"/>
       <c r="D10" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="11" spans="4:4">
-      <c r="D11" t="s">
+      <c r="E10" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="4:4">
+    <row r="11" spans="1:5">
+      <c r="A11" s="1"/>
+      <c r="D11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="D12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="4:5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1"/>
       <c r="D13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" ht="51" spans="3:7">
-      <c r="C14" t="s">
-        <v>29</v>
-      </c>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1"/>
       <c r="D14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" t="s">
         <v>31</v>
       </c>
-      <c r="F14">
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1"/>
+      <c r="D15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" ht="51" spans="1:7">
+      <c r="A16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16">
         <v>220</v>
       </c>
-      <c r="G14" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="4:7">
-      <c r="D15" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" t="s">
-        <v>34</v>
-      </c>
-      <c r="G15" s="4"/>
-    </row>
-    <row r="16" spans="4:7">
-      <c r="D16" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" t="s">
-        <v>34</v>
-      </c>
-      <c r="G16" s="4"/>
-    </row>
-    <row r="17" spans="4:7">
+      <c r="G16" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1"/>
       <c r="D17" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E17" t="s">
-        <v>34</v>
-      </c>
-      <c r="G17" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1"/>
+      <c r="D18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" t="s">
+        <v>40</v>
+      </c>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1"/>
+      <c r="D19" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1"/>
+      <c r="D20" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1"/>
+      <c r="D21" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1"/>
+      <c r="D22" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1"/>
+      <c r="D23" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1"/>
+      <c r="D24" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="18" spans="4:5">
-      <c r="D18" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="4:5">
-      <c r="D19" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="4:5">
-      <c r="D20" t="s">
-        <v>40</v>
-      </c>
-      <c r="E20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="4:5">
-      <c r="D21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="4:6">
-      <c r="D22" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E22" t="s">
-        <v>31</v>
-      </c>
-      <c r="F22">
+      <c r="F24">
         <v>220</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A3:A10"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A24"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>

--- a/旅行/20230622港澳三日游.xlsx
+++ b/旅行/20230622港澳三日游.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="11320"/>
+    <workbookView windowWidth="28060" windowHeight="12160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50">
   <si>
     <t>日期</t>
   </si>
@@ -103,6 +103,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
       <t>地铁：
 铜锣湾(港岛线)  换乘站（金钟站）</t>
     </r>
@@ -119,6 +124,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>（</t>
@@ -136,6 +142,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>）
@@ -143,7 +150,7 @@
     </r>
   </si>
   <si>
-    <t>深圳：住宿</t>
+    <t>住宿?</t>
   </si>
   <si>
     <t>day2</t>
@@ -162,6 +169,9 @@
   </si>
   <si>
     <t>滴滴</t>
+  </si>
+  <si>
+    <t>住宿？</t>
   </si>
   <si>
     <t>day3</t>
@@ -215,12 +225,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -244,14 +254,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -259,9 +277,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -275,6 +292,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -283,46 +331,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -345,22 +363,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -382,10 +385,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -397,187 +419,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -591,16 +613,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -622,31 +644,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -680,11 +696,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -693,152 +715,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -850,9 +872,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1179,10 +1198,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A2:G24"/>
+  <dimension ref="A2:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
@@ -1256,7 +1275,7 @@
       <c r="D5" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1265,7 +1284,7 @@
       <c r="D6" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1296,12 +1315,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" ht="51" spans="1:5">
+    <row r="10" ht="51" hidden="1" spans="1:5">
       <c r="A10" s="1"/>
       <c r="D10" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="5" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1310,7 +1329,7 @@
       <c r="D11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="6"/>
+      <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
@@ -1326,13 +1345,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" hidden="1" spans="1:4">
       <c r="A14" s="1"/>
       <c r="D14" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" hidden="1" spans="1:5">
       <c r="A15" s="1"/>
       <c r="D15" t="s">
         <v>32</v>
@@ -1341,45 +1360,41 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" ht="51" spans="1:7">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:4">
+      <c r="A16" s="1"/>
+      <c r="D16" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C16" t="s">
+    </row>
+    <row r="17" ht="51" hidden="1" spans="1:7">
+      <c r="A17" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D16" t="s">
+      <c r="C17" t="s">
         <v>36</v>
       </c>
-      <c r="E16" t="s">
+      <c r="D17" t="s">
         <v>37</v>
       </c>
-      <c r="F16">
+      <c r="E17" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17">
         <v>220</v>
       </c>
-      <c r="G16" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="1"/>
-      <c r="D17" t="s">
+      <c r="G17" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E17" t="s">
-        <v>40</v>
-      </c>
-      <c r="G17" s="5"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1"/>
       <c r="D18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" t="s">
         <v>41</v>
       </c>
-      <c r="E18" t="s">
-        <v>40</v>
-      </c>
-      <c r="G18" s="5"/>
+      <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1"/>
@@ -1387,19 +1402,20 @@
         <v>42</v>
       </c>
       <c r="E19" t="s">
-        <v>40</v>
-      </c>
-      <c r="G19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>41</v>
+      </c>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1"/>
       <c r="D20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" t="s">
+        <v>41</v>
+      </c>
+      <c r="G20" t="s">
         <v>44</v>
-      </c>
-      <c r="E20" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1408,7 +1424,7 @@
         <v>45</v>
       </c>
       <c r="E21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1417,7 +1433,7 @@
         <v>46</v>
       </c>
       <c r="E22" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1426,26 +1442,35 @@
         <v>47</v>
       </c>
       <c r="E23" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="1"/>
-      <c r="D24" s="3" t="s">
+      <c r="D24" t="s">
         <v>48</v>
       </c>
       <c r="E24" t="s">
-        <v>37</v>
-      </c>
-      <c r="F24">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" hidden="1" spans="1:6">
+      <c r="A25" s="1"/>
+      <c r="D25" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E25" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25">
         <v>220</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A3:A10"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A16:A24"/>
+    <mergeCell ref="A3:A11"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="A17:A25"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
